--- a/statistics_condensed.xlsx
+++ b/statistics_condensed.xlsx
@@ -232,79 +232,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB3AFE4"/>
+        <fgColor rgb="FFBDA6E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8DFC2"/>
+        <fgColor rgb="FFFDE2CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA49AAB"/>
+        <fgColor rgb="FFA7CDE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0B2FD"/>
+        <fgColor rgb="FFD5FEF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA696B4"/>
+        <fgColor rgb="FFB397B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4C9DB"/>
+        <fgColor rgb="FFEFA8CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE49A97"/>
+        <fgColor rgb="FF99DBA8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBE4BD"/>
+        <fgColor rgb="FFDCADFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6EEAD"/>
+        <fgColor rgb="FFDCDCE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3A4A6"/>
+        <fgColor rgb="FFACDECD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3BDF0"/>
+        <fgColor rgb="FF9DD7F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCCACC"/>
+        <fgColor rgb="FFB0DB96"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2DAC4"/>
+        <fgColor rgb="FFC3DBE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,16 +764,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="12">
-        <v>1.866997261035956</v>
+        <v>1.843557631086175</v>
       </c>
       <c r="C5" s="12">
-        <v>0.5158126067704628</v>
+        <v>0.5157993155584074</v>
       </c>
       <c r="D5" s="13">
-        <v>0.0007812871834360839</v>
+        <v>0.0008037934770308429</v>
       </c>
       <c r="E5" s="12">
-        <v>3.361092500038028</v>
+        <v>3.35322549038706</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -798,16 +798,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="18">
-        <v>-454.9451879020083</v>
+        <v>-450.2063900838606</v>
       </c>
       <c r="C7" s="18">
-        <v>-0.3933589370694147</v>
+        <v>-0.392095559812901</v>
       </c>
       <c r="D7" s="19">
-        <v>0.0002767655536177508</v>
+        <v>0.0002528630914822416</v>
       </c>
       <c r="E7" s="18">
-        <v>-3.638324509313828</v>
+        <v>-3.661578251382192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,16 +951,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="39">
-        <v>-0.8728037331538636</v>
+        <v>-0.8667094347112938</v>
       </c>
       <c r="C16" s="39">
-        <v>-0.2210862031281594</v>
+        <v>-0.2206850842391159</v>
       </c>
       <c r="D16" s="40">
-        <v>0.0006400100521255085</v>
+        <v>0.0006598264203504922</v>
       </c>
       <c r="E16" s="39">
-        <v>-3.415900494743193</v>
+        <v>-3.407571252368454</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1070,16 +1070,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="48">
-        <v>3.054585974784404</v>
+        <v>3.021404385478446</v>
       </c>
       <c r="C23" s="48">
-        <v>0.194714156560507</v>
+        <v>0.1939584297157631</v>
       </c>
       <c r="D23" s="49">
-        <v>0.002687569742260673</v>
+        <v>0.002800949297166008</v>
       </c>
       <c r="E23" s="48">
-        <v>3.002657286108902</v>
+        <v>2.990038808446408</v>
       </c>
     </row>
     <row r="24" spans="1:5">
